--- a/data/raw/election/voters-age-sex-education/2023/Kayseri.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kayseri.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:47:25-87157090284" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="45">
   <si>
     <t>Kayseri</t>
   </si>
@@ -149,6 +148,12 @@
   </si>
   <si>
     <t>Yeşilhisar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -682,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -702,10 +707,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1030,10 +1044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N420"/>
+  <dimension ref="A1:N422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421:A422"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,24 +1063,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2100,8 +2114,8 @@
       <c r="D30" s="5">
         <v>338</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.681</v>
+      <c r="E30" s="7">
+        <v>1681</v>
       </c>
       <c r="F30" s="5">
         <v>369</v>
@@ -2124,8 +2138,8 @@
       <c r="L30" s="5">
         <v>67</v>
       </c>
-      <c r="M30" s="5">
-        <v>4.8109999999999999</v>
+      <c r="M30" s="7">
+        <v>4811</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2204,8 +2218,8 @@
       <c r="L32" s="4">
         <v>19</v>
       </c>
-      <c r="M32" s="5">
-        <v>1.256</v>
+      <c r="M32" s="7">
+        <v>1256</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2243,8 +2257,8 @@
       <c r="L33" s="4">
         <v>9</v>
       </c>
-      <c r="M33" s="5">
-        <v>1.276</v>
+      <c r="M33" s="7">
+        <v>1276</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3123,8 +3137,8 @@
       <c r="L55" s="4">
         <v>29</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.1419999999999999</v>
+      <c r="M55" s="7">
+        <v>1142</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3138,20 +3152,20 @@
       <c r="D56" s="5">
         <v>840</v>
       </c>
-      <c r="E56" s="5">
-        <v>5.82</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1.5529999999999999</v>
-      </c>
-      <c r="G56" s="5">
-        <v>2.931</v>
-      </c>
-      <c r="H56" s="5">
-        <v>4.5910000000000002</v>
-      </c>
-      <c r="I56" s="5">
-        <v>2.4239999999999999</v>
+      <c r="E56" s="7">
+        <v>5820</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1553</v>
+      </c>
+      <c r="G56" s="7">
+        <v>2931</v>
+      </c>
+      <c r="H56" s="7">
+        <v>4591</v>
+      </c>
+      <c r="I56" s="7">
+        <v>2424</v>
       </c>
       <c r="J56" s="5">
         <v>164</v>
@@ -3162,8 +3176,8 @@
       <c r="L56" s="5">
         <v>236</v>
       </c>
-      <c r="M56" s="5">
-        <v>19.492000000000001</v>
+      <c r="M56" s="7">
+        <v>19492</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3224,11 +3238,11 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.0580000000000001</v>
-      </c>
-      <c r="H58" s="4">
-        <v>2.1320000000000001</v>
+      <c r="G58" s="9">
+        <v>1058</v>
+      </c>
+      <c r="H58" s="9">
+        <v>2132</v>
       </c>
       <c r="I58" s="4">
         <v>374</v>
@@ -3242,8 +3256,8 @@
       <c r="L58" s="4">
         <v>56</v>
       </c>
-      <c r="M58" s="5">
-        <v>3.6339999999999999</v>
+      <c r="M58" s="7">
+        <v>3634</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3266,8 +3280,8 @@
       <c r="G59" s="4">
         <v>849</v>
       </c>
-      <c r="H59" s="4">
-        <v>2.181</v>
+      <c r="H59" s="9">
+        <v>2181</v>
       </c>
       <c r="I59" s="4">
         <v>630</v>
@@ -3281,8 +3295,8 @@
       <c r="L59" s="4">
         <v>17</v>
       </c>
-      <c r="M59" s="5">
-        <v>3.7010000000000001</v>
+      <c r="M59" s="7">
+        <v>3701</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3322,8 +3336,8 @@
       <c r="L60" s="4">
         <v>11</v>
       </c>
-      <c r="M60" s="5">
-        <v>2.2330000000000001</v>
+      <c r="M60" s="7">
+        <v>2233</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3361,8 +3375,8 @@
       <c r="L61" s="4">
         <v>23</v>
       </c>
-      <c r="M61" s="5">
-        <v>2.262</v>
+      <c r="M61" s="7">
+        <v>2262</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3402,8 +3416,8 @@
       <c r="L62" s="4">
         <v>16</v>
       </c>
-      <c r="M62" s="5">
-        <v>2.1</v>
+      <c r="M62" s="7">
+        <v>2100</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3441,8 +3455,8 @@
       <c r="L63" s="4">
         <v>27</v>
       </c>
-      <c r="M63" s="5">
-        <v>2.0129999999999999</v>
+      <c r="M63" s="7">
+        <v>2013</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3482,8 +3496,8 @@
       <c r="L64" s="4">
         <v>19</v>
       </c>
-      <c r="M64" s="5">
-        <v>2.3359999999999999</v>
+      <c r="M64" s="7">
+        <v>2336</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3521,8 +3535,8 @@
       <c r="L65" s="4">
         <v>24</v>
       </c>
-      <c r="M65" s="5">
-        <v>2.19</v>
+      <c r="M65" s="7">
+        <v>2190</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3562,8 +3576,8 @@
       <c r="L66" s="4">
         <v>25</v>
       </c>
-      <c r="M66" s="5">
-        <v>2.3809999999999998</v>
+      <c r="M66" s="7">
+        <v>2381</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3601,8 +3615,8 @@
       <c r="L67" s="4">
         <v>17</v>
       </c>
-      <c r="M67" s="5">
-        <v>2.198</v>
+      <c r="M67" s="7">
+        <v>2198</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3642,8 +3656,8 @@
       <c r="L68" s="4">
         <v>24</v>
       </c>
-      <c r="M68" s="5">
-        <v>2.0680000000000001</v>
+      <c r="M68" s="7">
+        <v>2068</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3657,8 +3671,8 @@
       <c r="D69" s="4">
         <v>31</v>
       </c>
-      <c r="E69" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E69" s="9">
+        <v>1059</v>
       </c>
       <c r="F69" s="4">
         <v>220</v>
@@ -3681,8 +3695,8 @@
       <c r="L69" s="4">
         <v>26</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.9750000000000001</v>
+      <c r="M69" s="7">
+        <v>1975</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3722,8 +3736,8 @@
       <c r="L70" s="4">
         <v>35</v>
       </c>
-      <c r="M70" s="5">
-        <v>2.0339999999999998</v>
+      <c r="M70" s="7">
+        <v>2034</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3737,8 +3751,8 @@
       <c r="D71" s="4">
         <v>43</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.147</v>
+      <c r="E71" s="9">
+        <v>1147</v>
       </c>
       <c r="F71" s="4">
         <v>232</v>
@@ -3761,8 +3775,8 @@
       <c r="L71" s="4">
         <v>33</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.9370000000000001</v>
+      <c r="M71" s="7">
+        <v>1937</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3802,8 +3816,8 @@
       <c r="L72" s="4">
         <v>48</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.9870000000000001</v>
+      <c r="M72" s="7">
+        <v>1987</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3817,8 +3831,8 @@
       <c r="D73" s="4">
         <v>78</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.268</v>
+      <c r="E73" s="9">
+        <v>1268</v>
       </c>
       <c r="F73" s="4">
         <v>154</v>
@@ -3841,8 +3855,8 @@
       <c r="L73" s="4">
         <v>37</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.927</v>
+      <c r="M73" s="7">
+        <v>1927</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3882,8 +3896,8 @@
       <c r="L74" s="4">
         <v>47</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.869</v>
+      <c r="M74" s="7">
+        <v>1869</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3897,8 +3911,8 @@
       <c r="D75" s="4">
         <v>123</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.228</v>
+      <c r="E75" s="9">
+        <v>1228</v>
       </c>
       <c r="F75" s="4">
         <v>96</v>
@@ -3921,8 +3935,8 @@
       <c r="L75" s="4">
         <v>33</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.78</v>
+      <c r="M75" s="7">
+        <v>1780</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3962,8 +3976,8 @@
       <c r="L76" s="4">
         <v>33</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.4430000000000001</v>
+      <c r="M76" s="7">
+        <v>1443</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4001,8 +4015,8 @@
       <c r="L77" s="4">
         <v>48</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.5820000000000001</v>
+      <c r="M77" s="7">
+        <v>1582</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4042,8 +4056,8 @@
       <c r="L78" s="4">
         <v>45</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.131</v>
+      <c r="M78" s="7">
+        <v>1131</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4081,8 +4095,8 @@
       <c r="L79" s="4">
         <v>41</v>
       </c>
-      <c r="M79" s="5">
-        <v>1.2929999999999999</v>
+      <c r="M79" s="7">
+        <v>1293</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4122,8 +4136,8 @@
       <c r="L80" s="4">
         <v>54</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.3009999999999999</v>
+      <c r="M80" s="7">
+        <v>1301</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4131,8 +4145,8 @@
       <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="4">
-        <v>1.091</v>
+      <c r="C81" s="9">
+        <v>1091</v>
       </c>
       <c r="D81" s="4">
         <v>439</v>
@@ -4161,8 +4175,8 @@
       <c r="L81" s="4">
         <v>69</v>
       </c>
-      <c r="M81" s="5">
-        <v>2.0979999999999999</v>
+      <c r="M81" s="7">
+        <v>2098</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4170,26 +4184,26 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="E82" s="5">
-        <v>14.346</v>
-      </c>
-      <c r="F82" s="5">
-        <v>4.7030000000000003</v>
-      </c>
-      <c r="G82" s="5">
-        <v>7.6879999999999997</v>
-      </c>
-      <c r="H82" s="5">
-        <v>11.423999999999999</v>
-      </c>
-      <c r="I82" s="5">
-        <v>6</v>
+      <c r="C82" s="7">
+        <v>2273</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1654</v>
+      </c>
+      <c r="E82" s="7">
+        <v>14346</v>
+      </c>
+      <c r="F82" s="7">
+        <v>4703</v>
+      </c>
+      <c r="G82" s="7">
+        <v>7688</v>
+      </c>
+      <c r="H82" s="7">
+        <v>11424</v>
+      </c>
+      <c r="I82" s="7">
+        <v>6000</v>
       </c>
       <c r="J82" s="5">
         <v>542</v>
@@ -4200,8 +4214,8 @@
       <c r="L82" s="5">
         <v>808</v>
       </c>
-      <c r="M82" s="5">
-        <v>49.472999999999999</v>
+      <c r="M82" s="7">
+        <v>49473</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5214,8 +5228,8 @@
       <c r="D108" s="5">
         <v>377</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.238</v>
+      <c r="E108" s="7">
+        <v>1238</v>
       </c>
       <c r="F108" s="5">
         <v>362</v>
@@ -5238,8 +5252,8 @@
       <c r="L108" s="5">
         <v>668</v>
       </c>
-      <c r="M108" s="5">
-        <v>4.53</v>
+      <c r="M108" s="7">
+        <v>4530</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6252,20 +6266,20 @@
       <c r="D134" s="5">
         <v>548</v>
       </c>
-      <c r="E134" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.002</v>
-      </c>
-      <c r="G134" s="5">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>2.6259999999999999</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1.411</v>
+      <c r="E134" s="7">
+        <v>2140</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1002</v>
+      </c>
+      <c r="G134" s="7">
+        <v>1398</v>
+      </c>
+      <c r="H134" s="7">
+        <v>2626</v>
+      </c>
+      <c r="I134" s="7">
+        <v>1411</v>
       </c>
       <c r="J134" s="5">
         <v>148</v>
@@ -6276,8 +6290,8 @@
       <c r="L134" s="5">
         <v>78</v>
       </c>
-      <c r="M134" s="5">
-        <v>9.5449999999999999</v>
+      <c r="M134" s="7">
+        <v>9545</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6356,8 +6370,8 @@
       <c r="L136" s="4">
         <v>12</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.7010000000000001</v>
+      <c r="M136" s="7">
+        <v>1701</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6395,8 +6409,8 @@
       <c r="L137" s="4">
         <v>5</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.6220000000000001</v>
+      <c r="M137" s="7">
+        <v>1622</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6436,8 +6450,8 @@
       <c r="L138" s="4">
         <v>4</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.08</v>
+      <c r="M138" s="7">
+        <v>1080</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6475,8 +6489,8 @@
       <c r="L139" s="4">
         <v>9</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.008</v>
+      <c r="M139" s="7">
+        <v>1008</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6516,8 +6530,8 @@
       <c r="L140" s="4">
         <v>3</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.0309999999999999</v>
+      <c r="M140" s="7">
+        <v>1031</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6596,8 +6610,8 @@
       <c r="L142" s="4">
         <v>3</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.0940000000000001</v>
+      <c r="M142" s="7">
+        <v>1094</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6676,8 +6690,8 @@
       <c r="L144" s="4">
         <v>4</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.1419999999999999</v>
+      <c r="M144" s="7">
+        <v>1142</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6715,8 +6729,8 @@
       <c r="L145" s="4">
         <v>5</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.016</v>
+      <c r="M145" s="7">
+        <v>1016</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,20 +7304,20 @@
       <c r="D160" s="5">
         <v>928</v>
       </c>
-      <c r="E160" s="5">
-        <v>5.3559999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.8809999999999998</v>
-      </c>
-      <c r="H160" s="5">
-        <v>5.4260000000000002</v>
-      </c>
-      <c r="I160" s="5">
-        <v>2.2040000000000002</v>
+      <c r="E160" s="7">
+        <v>5356</v>
+      </c>
+      <c r="F160" s="7">
+        <v>2204</v>
+      </c>
+      <c r="G160" s="7">
+        <v>3881</v>
+      </c>
+      <c r="H160" s="7">
+        <v>5426</v>
+      </c>
+      <c r="I160" s="7">
+        <v>2204</v>
       </c>
       <c r="J160" s="5">
         <v>142</v>
@@ -7314,8 +7328,8 @@
       <c r="L160" s="5">
         <v>192</v>
       </c>
-      <c r="M160" s="5">
-        <v>21.289000000000001</v>
+      <c r="M160" s="7">
+        <v>21289</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7376,14 +7390,14 @@
       <c r="F162" s="4">
         <v>5</v>
       </c>
-      <c r="G162" s="4">
-        <v>5.4969999999999999</v>
-      </c>
-      <c r="H162" s="4">
-        <v>13.097</v>
-      </c>
-      <c r="I162" s="4">
-        <v>2.694</v>
+      <c r="G162" s="9">
+        <v>5497</v>
+      </c>
+      <c r="H162" s="9">
+        <v>13097</v>
+      </c>
+      <c r="I162" s="9">
+        <v>2694</v>
       </c>
       <c r="J162" s="4">
         <v>41</v>
@@ -7394,8 +7408,8 @@
       <c r="L162" s="4">
         <v>181</v>
       </c>
-      <c r="M162" s="5">
-        <v>21.661999999999999</v>
+      <c r="M162" s="7">
+        <v>21662</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7415,14 +7429,14 @@
       <c r="F163" s="4">
         <v>6</v>
       </c>
-      <c r="G163" s="4">
-        <v>3.984</v>
-      </c>
-      <c r="H163" s="4">
-        <v>13.348000000000001</v>
-      </c>
-      <c r="I163" s="4">
-        <v>3.7360000000000002</v>
+      <c r="G163" s="9">
+        <v>3984</v>
+      </c>
+      <c r="H163" s="9">
+        <v>13348</v>
+      </c>
+      <c r="I163" s="9">
+        <v>3736</v>
       </c>
       <c r="J163" s="4">
         <v>40</v>
@@ -7433,8 +7447,8 @@
       <c r="L163" s="4">
         <v>110</v>
       </c>
-      <c r="M163" s="5">
-        <v>21.42</v>
+      <c r="M163" s="7">
+        <v>21420</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7456,14 +7470,14 @@
       <c r="F164" s="4">
         <v>120</v>
       </c>
-      <c r="G164" s="4">
-        <v>3.4569999999999999</v>
-      </c>
-      <c r="H164" s="4">
-        <v>4.5359999999999996</v>
-      </c>
-      <c r="I164" s="4">
-        <v>5.18</v>
+      <c r="G164" s="9">
+        <v>3457</v>
+      </c>
+      <c r="H164" s="9">
+        <v>4536</v>
+      </c>
+      <c r="I164" s="9">
+        <v>5180</v>
       </c>
       <c r="J164" s="4">
         <v>365</v>
@@ -7474,8 +7488,8 @@
       <c r="L164" s="4">
         <v>83</v>
       </c>
-      <c r="M164" s="5">
-        <v>13.867000000000001</v>
+      <c r="M164" s="7">
+        <v>13867</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7495,14 +7509,14 @@
       <c r="F165" s="4">
         <v>101</v>
       </c>
-      <c r="G165" s="4">
-        <v>3.2480000000000002</v>
-      </c>
-      <c r="H165" s="4">
-        <v>3.452</v>
-      </c>
-      <c r="I165" s="4">
-        <v>6.6040000000000001</v>
+      <c r="G165" s="9">
+        <v>3248</v>
+      </c>
+      <c r="H165" s="9">
+        <v>3452</v>
+      </c>
+      <c r="I165" s="9">
+        <v>6604</v>
       </c>
       <c r="J165" s="4">
         <v>524</v>
@@ -7513,8 +7527,8 @@
       <c r="L165" s="4">
         <v>98</v>
       </c>
-      <c r="M165" s="5">
-        <v>14.467000000000001</v>
+      <c r="M165" s="7">
+        <v>14467</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7533,17 +7547,17 @@
       <c r="E166" s="4">
         <v>101</v>
       </c>
-      <c r="F166" s="4">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="G166" s="4">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="H166" s="4">
-        <v>4.5129999999999999</v>
-      </c>
-      <c r="I166" s="4">
-        <v>4.55</v>
+      <c r="F166" s="9">
+        <v>1703</v>
+      </c>
+      <c r="G166" s="9">
+        <v>1559</v>
+      </c>
+      <c r="H166" s="9">
+        <v>4513</v>
+      </c>
+      <c r="I166" s="9">
+        <v>4550</v>
       </c>
       <c r="J166" s="4">
         <v>542</v>
@@ -7554,8 +7568,8 @@
       <c r="L166" s="4">
         <v>108</v>
       </c>
-      <c r="M166" s="5">
-        <v>13.212999999999999</v>
+      <c r="M166" s="7">
+        <v>13213</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7572,17 +7586,17 @@
       <c r="E167" s="4">
         <v>306</v>
       </c>
-      <c r="F167" s="4">
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="G167" s="4">
-        <v>1.3029999999999999</v>
-      </c>
-      <c r="H167" s="4">
-        <v>3.9180000000000001</v>
-      </c>
-      <c r="I167" s="4">
-        <v>5.1319999999999997</v>
+      <c r="F167" s="9">
+        <v>2381</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1303</v>
+      </c>
+      <c r="H167" s="9">
+        <v>3918</v>
+      </c>
+      <c r="I167" s="9">
+        <v>5132</v>
       </c>
       <c r="J167" s="4">
         <v>630</v>
@@ -7593,8 +7607,8 @@
       <c r="L167" s="4">
         <v>147</v>
       </c>
-      <c r="M167" s="5">
-        <v>14.215999999999999</v>
+      <c r="M167" s="7">
+        <v>14216</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7613,17 +7627,17 @@
       <c r="E168" s="4">
         <v>635</v>
       </c>
-      <c r="F168" s="4">
-        <v>2.4540000000000002</v>
-      </c>
-      <c r="G168" s="4">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="H168" s="4">
-        <v>5.6420000000000003</v>
-      </c>
-      <c r="I168" s="4">
-        <v>4.18</v>
+      <c r="F168" s="9">
+        <v>2454</v>
+      </c>
+      <c r="G168" s="9">
+        <v>1525</v>
+      </c>
+      <c r="H168" s="9">
+        <v>5642</v>
+      </c>
+      <c r="I168" s="9">
+        <v>4180</v>
       </c>
       <c r="J168" s="4">
         <v>686</v>
@@ -7634,8 +7648,8 @@
       <c r="L168" s="4">
         <v>121</v>
       </c>
-      <c r="M168" s="5">
-        <v>15.36</v>
+      <c r="M168" s="7">
+        <v>15360</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7649,20 +7663,20 @@
       <c r="D169" s="4">
         <v>173</v>
       </c>
-      <c r="E169" s="4">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="F169" s="4">
-        <v>1.956</v>
-      </c>
-      <c r="G169" s="4">
-        <v>1.512</v>
-      </c>
-      <c r="H169" s="4">
-        <v>4.7080000000000002</v>
-      </c>
-      <c r="I169" s="4">
-        <v>3.7949999999999999</v>
+      <c r="E169" s="9">
+        <v>2574</v>
+      </c>
+      <c r="F169" s="9">
+        <v>1956</v>
+      </c>
+      <c r="G169" s="9">
+        <v>1512</v>
+      </c>
+      <c r="H169" s="9">
+        <v>4708</v>
+      </c>
+      <c r="I169" s="9">
+        <v>3795</v>
       </c>
       <c r="J169" s="4">
         <v>582</v>
@@ -7673,8 +7687,8 @@
       <c r="L169" s="4">
         <v>158</v>
       </c>
-      <c r="M169" s="5">
-        <v>15.602</v>
+      <c r="M169" s="7">
+        <v>15602</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7690,20 +7704,20 @@
       <c r="D170" s="4">
         <v>35</v>
       </c>
-      <c r="E170" s="4">
-        <v>1.171</v>
-      </c>
-      <c r="F170" s="4">
-        <v>2.105</v>
-      </c>
-      <c r="G170" s="4">
-        <v>2.427</v>
-      </c>
-      <c r="H170" s="4">
-        <v>5.7869999999999999</v>
-      </c>
-      <c r="I170" s="4">
-        <v>3.5390000000000001</v>
+      <c r="E170" s="9">
+        <v>1171</v>
+      </c>
+      <c r="F170" s="9">
+        <v>2105</v>
+      </c>
+      <c r="G170" s="9">
+        <v>2427</v>
+      </c>
+      <c r="H170" s="9">
+        <v>5787</v>
+      </c>
+      <c r="I170" s="9">
+        <v>3539</v>
       </c>
       <c r="J170" s="4">
         <v>615</v>
@@ -7714,8 +7728,8 @@
       <c r="L170" s="4">
         <v>146</v>
       </c>
-      <c r="M170" s="5">
-        <v>15.920999999999999</v>
+      <c r="M170" s="7">
+        <v>15921</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7729,20 +7743,20 @@
       <c r="D171" s="4">
         <v>192</v>
       </c>
-      <c r="E171" s="4">
-        <v>3.9369999999999998</v>
-      </c>
-      <c r="F171" s="4">
-        <v>1.4370000000000001</v>
-      </c>
-      <c r="G171" s="4">
-        <v>2.2909999999999999</v>
-      </c>
-      <c r="H171" s="4">
-        <v>4.5060000000000002</v>
-      </c>
-      <c r="I171" s="4">
-        <v>3.0939999999999999</v>
+      <c r="E171" s="9">
+        <v>3937</v>
+      </c>
+      <c r="F171" s="9">
+        <v>1437</v>
+      </c>
+      <c r="G171" s="9">
+        <v>2291</v>
+      </c>
+      <c r="H171" s="9">
+        <v>4506</v>
+      </c>
+      <c r="I171" s="9">
+        <v>3094</v>
       </c>
       <c r="J171" s="4">
         <v>497</v>
@@ -7753,8 +7767,8 @@
       <c r="L171" s="4">
         <v>137</v>
       </c>
-      <c r="M171" s="5">
-        <v>16.257999999999999</v>
+      <c r="M171" s="7">
+        <v>16258</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7770,20 +7784,20 @@
       <c r="D172" s="4">
         <v>32</v>
       </c>
-      <c r="E172" s="4">
-        <v>1.4870000000000001</v>
-      </c>
-      <c r="F172" s="4">
-        <v>2.387</v>
-      </c>
-      <c r="G172" s="4">
-        <v>2.242</v>
-      </c>
-      <c r="H172" s="4">
-        <v>4.3049999999999997</v>
-      </c>
-      <c r="I172" s="4">
-        <v>3.1560000000000001</v>
+      <c r="E172" s="9">
+        <v>1487</v>
+      </c>
+      <c r="F172" s="9">
+        <v>2387</v>
+      </c>
+      <c r="G172" s="9">
+        <v>2242</v>
+      </c>
+      <c r="H172" s="9">
+        <v>4305</v>
+      </c>
+      <c r="I172" s="9">
+        <v>3156</v>
       </c>
       <c r="J172" s="4">
         <v>381</v>
@@ -7794,8 +7808,8 @@
       <c r="L172" s="4">
         <v>158</v>
       </c>
-      <c r="M172" s="5">
-        <v>14.250999999999999</v>
+      <c r="M172" s="7">
+        <v>14251</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7809,20 +7823,20 @@
       <c r="D173" s="4">
         <v>174</v>
       </c>
-      <c r="E173" s="4">
-        <v>4.5010000000000003</v>
-      </c>
-      <c r="F173" s="4">
-        <v>1.512</v>
-      </c>
-      <c r="G173" s="4">
-        <v>2.081</v>
-      </c>
-      <c r="H173" s="4">
-        <v>3.294</v>
-      </c>
-      <c r="I173" s="4">
-        <v>2.004</v>
+      <c r="E173" s="9">
+        <v>4501</v>
+      </c>
+      <c r="F173" s="9">
+        <v>1512</v>
+      </c>
+      <c r="G173" s="9">
+        <v>2081</v>
+      </c>
+      <c r="H173" s="9">
+        <v>3294</v>
+      </c>
+      <c r="I173" s="9">
+        <v>2004</v>
       </c>
       <c r="J173" s="4">
         <v>179</v>
@@ -7833,8 +7847,8 @@
       <c r="L173" s="4">
         <v>152</v>
       </c>
-      <c r="M173" s="5">
-        <v>14.068</v>
+      <c r="M173" s="7">
+        <v>14068</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7850,20 +7864,20 @@
       <c r="D174" s="4">
         <v>31</v>
       </c>
-      <c r="E174" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="F174" s="4">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="G174" s="4">
-        <v>2.3029999999999999</v>
-      </c>
-      <c r="H174" s="4">
-        <v>3.0219999999999998</v>
-      </c>
-      <c r="I174" s="4">
-        <v>2.3069999999999999</v>
+      <c r="E174" s="9">
+        <v>1570</v>
+      </c>
+      <c r="F174" s="9">
+        <v>2358</v>
+      </c>
+      <c r="G174" s="9">
+        <v>2303</v>
+      </c>
+      <c r="H174" s="9">
+        <v>3022</v>
+      </c>
+      <c r="I174" s="9">
+        <v>2307</v>
       </c>
       <c r="J174" s="4">
         <v>251</v>
@@ -7874,8 +7888,8 @@
       <c r="L174" s="4">
         <v>170</v>
       </c>
-      <c r="M174" s="5">
-        <v>12.093</v>
+      <c r="M174" s="7">
+        <v>12093</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7889,20 +7903,20 @@
       <c r="D175" s="4">
         <v>293</v>
       </c>
-      <c r="E175" s="4">
-        <v>4.7149999999999999</v>
-      </c>
-      <c r="F175" s="4">
-        <v>1.4059999999999999</v>
-      </c>
-      <c r="G175" s="4">
-        <v>1.714</v>
-      </c>
-      <c r="H175" s="4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="I175" s="4">
-        <v>1.0509999999999999</v>
+      <c r="E175" s="9">
+        <v>4715</v>
+      </c>
+      <c r="F175" s="9">
+        <v>1406</v>
+      </c>
+      <c r="G175" s="9">
+        <v>1714</v>
+      </c>
+      <c r="H175" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I175" s="9">
+        <v>1051</v>
       </c>
       <c r="J175" s="4">
         <v>102</v>
@@ -7913,8 +7927,8 @@
       <c r="L175" s="4">
         <v>220</v>
       </c>
-      <c r="M175" s="5">
-        <v>11.721</v>
+      <c r="M175" s="7">
+        <v>11721</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7930,20 +7944,20 @@
       <c r="D176" s="4">
         <v>53</v>
       </c>
-      <c r="E176" s="4">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="F176" s="4">
-        <v>2.0339999999999998</v>
-      </c>
-      <c r="G176" s="4">
-        <v>1.8420000000000001</v>
-      </c>
-      <c r="H176" s="4">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="I176" s="4">
-        <v>1.4550000000000001</v>
+      <c r="E176" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F176" s="9">
+        <v>2034</v>
+      </c>
+      <c r="G176" s="9">
+        <v>1842</v>
+      </c>
+      <c r="H176" s="9">
+        <v>2260</v>
+      </c>
+      <c r="I176" s="9">
+        <v>1455</v>
       </c>
       <c r="J176" s="4">
         <v>160</v>
@@ -7954,8 +7968,8 @@
       <c r="L176" s="4">
         <v>245</v>
       </c>
-      <c r="M176" s="5">
-        <v>10.124000000000001</v>
+      <c r="M176" s="7">
+        <v>10124</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7969,17 +7983,17 @@
       <c r="D177" s="4">
         <v>498</v>
       </c>
-      <c r="E177" s="4">
-        <v>5.2489999999999997</v>
+      <c r="E177" s="9">
+        <v>5249</v>
       </c>
       <c r="F177" s="4">
         <v>907</v>
       </c>
-      <c r="G177" s="4">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="H177" s="4">
-        <v>1.47</v>
+      <c r="G177" s="9">
+        <v>1178</v>
+      </c>
+      <c r="H177" s="9">
+        <v>1470</v>
       </c>
       <c r="I177" s="4">
         <v>483</v>
@@ -7993,8 +8007,8 @@
       <c r="L177" s="4">
         <v>226</v>
       </c>
-      <c r="M177" s="5">
-        <v>10.356</v>
+      <c r="M177" s="7">
+        <v>10356</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8010,17 +8024,17 @@
       <c r="D178" s="4">
         <v>69</v>
       </c>
-      <c r="E178" s="4">
-        <v>2.6859999999999999</v>
-      </c>
-      <c r="F178" s="4">
-        <v>1.228</v>
-      </c>
-      <c r="G178" s="4">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="H178" s="4">
-        <v>1.8680000000000001</v>
+      <c r="E178" s="9">
+        <v>2686</v>
+      </c>
+      <c r="F178" s="9">
+        <v>1228</v>
+      </c>
+      <c r="G178" s="9">
+        <v>1277</v>
+      </c>
+      <c r="H178" s="9">
+        <v>1868</v>
       </c>
       <c r="I178" s="4">
         <v>942</v>
@@ -8034,8 +8048,8 @@
       <c r="L178" s="4">
         <v>225</v>
       </c>
-      <c r="M178" s="5">
-        <v>8.423</v>
+      <c r="M178" s="7">
+        <v>8423</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8049,8 +8063,8 @@
       <c r="D179" s="4">
         <v>735</v>
       </c>
-      <c r="E179" s="4">
-        <v>5.19</v>
+      <c r="E179" s="9">
+        <v>5190</v>
       </c>
       <c r="F179" s="4">
         <v>466</v>
@@ -8058,8 +8072,8 @@
       <c r="G179" s="4">
         <v>664</v>
       </c>
-      <c r="H179" s="4">
-        <v>1.042</v>
+      <c r="H179" s="9">
+        <v>1042</v>
       </c>
       <c r="I179" s="4">
         <v>285</v>
@@ -8073,8 +8087,8 @@
       <c r="L179" s="4">
         <v>265</v>
       </c>
-      <c r="M179" s="5">
-        <v>9.0939999999999994</v>
+      <c r="M179" s="7">
+        <v>9094</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8090,8 +8104,8 @@
       <c r="D180" s="4">
         <v>125</v>
       </c>
-      <c r="E180" s="4">
-        <v>3.2120000000000002</v>
+      <c r="E180" s="9">
+        <v>3212</v>
       </c>
       <c r="F180" s="4">
         <v>413</v>
@@ -8099,8 +8113,8 @@
       <c r="G180" s="4">
         <v>890</v>
       </c>
-      <c r="H180" s="4">
-        <v>1.0509999999999999</v>
+      <c r="H180" s="9">
+        <v>1051</v>
       </c>
       <c r="I180" s="4">
         <v>871</v>
@@ -8114,8 +8128,8 @@
       <c r="L180" s="4">
         <v>259</v>
       </c>
-      <c r="M180" s="5">
-        <v>6.9329999999999998</v>
+      <c r="M180" s="7">
+        <v>6933</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8126,11 +8140,11 @@
       <c r="C181" s="4">
         <v>663</v>
       </c>
-      <c r="D181" s="4">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="E181" s="4">
-        <v>4.1040000000000001</v>
+      <c r="D181" s="9">
+        <v>1076</v>
+      </c>
+      <c r="E181" s="9">
+        <v>4104</v>
       </c>
       <c r="F181" s="4">
         <v>169</v>
@@ -8153,8 +8167,8 @@
       <c r="L181" s="4">
         <v>232</v>
       </c>
-      <c r="M181" s="5">
-        <v>7.4279999999999999</v>
+      <c r="M181" s="7">
+        <v>7428</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8170,8 +8184,8 @@
       <c r="D182" s="4">
         <v>154</v>
       </c>
-      <c r="E182" s="4">
-        <v>2.6850000000000001</v>
+      <c r="E182" s="9">
+        <v>2685</v>
       </c>
       <c r="F182" s="4">
         <v>113</v>
@@ -8194,8 +8208,8 @@
       <c r="L182" s="4">
         <v>172</v>
       </c>
-      <c r="M182" s="5">
-        <v>4.7469999999999999</v>
+      <c r="M182" s="7">
+        <v>4747</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8206,11 +8220,11 @@
       <c r="C183" s="4">
         <v>872</v>
       </c>
-      <c r="D183" s="4">
-        <v>1.212</v>
-      </c>
-      <c r="E183" s="4">
-        <v>2.754</v>
+      <c r="D183" s="9">
+        <v>1212</v>
+      </c>
+      <c r="E183" s="9">
+        <v>2754</v>
       </c>
       <c r="F183" s="4">
         <v>47</v>
@@ -8233,8 +8247,8 @@
       <c r="L183" s="4">
         <v>226</v>
       </c>
-      <c r="M183" s="5">
-        <v>5.7350000000000003</v>
+      <c r="M183" s="7">
+        <v>5735</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8250,8 +8264,8 @@
       <c r="D184" s="4">
         <v>481</v>
       </c>
-      <c r="E184" s="4">
-        <v>3.0590000000000002</v>
+      <c r="E184" s="9">
+        <v>3059</v>
       </c>
       <c r="F184" s="4">
         <v>48</v>
@@ -8274,8 +8288,8 @@
       <c r="L184" s="4">
         <v>291</v>
       </c>
-      <c r="M184" s="5">
-        <v>5.3609999999999998</v>
+      <c r="M184" s="7">
+        <v>5361</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8283,14 +8297,14 @@
       <c r="B185" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="4">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="D185" s="4">
-        <v>2.06</v>
-      </c>
-      <c r="E185" s="4">
-        <v>2.8319999999999999</v>
+      <c r="C185" s="9">
+        <v>2466</v>
+      </c>
+      <c r="D185" s="9">
+        <v>2060</v>
+      </c>
+      <c r="E185" s="9">
+        <v>2832</v>
       </c>
       <c r="F185" s="4">
         <v>17</v>
@@ -8313,8 +8327,8 @@
       <c r="L185" s="4">
         <v>327</v>
       </c>
-      <c r="M185" s="5">
-        <v>8.1259999999999994</v>
+      <c r="M185" s="7">
+        <v>8126</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8322,38 +8336,38 @@
         <v>12</v>
       </c>
       <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>5.66</v>
-      </c>
-      <c r="D186" s="5">
-        <v>8.1820000000000004</v>
-      </c>
-      <c r="E186" s="5">
-        <v>55.292000000000002</v>
-      </c>
-      <c r="F186" s="5">
-        <v>25.373000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>42.579000000000001</v>
-      </c>
-      <c r="H186" s="5">
-        <v>85.823999999999998</v>
-      </c>
-      <c r="I186" s="5">
-        <v>56.52</v>
-      </c>
-      <c r="J186" s="5">
-        <v>5.8380000000000001</v>
+      <c r="C186" s="7">
+        <v>5660</v>
+      </c>
+      <c r="D186" s="7">
+        <v>8182</v>
+      </c>
+      <c r="E186" s="7">
+        <v>55292</v>
+      </c>
+      <c r="F186" s="7">
+        <v>25373</v>
+      </c>
+      <c r="G186" s="7">
+        <v>42579</v>
+      </c>
+      <c r="H186" s="7">
+        <v>85824</v>
+      </c>
+      <c r="I186" s="7">
+        <v>56520</v>
+      </c>
+      <c r="J186" s="7">
+        <v>5838</v>
       </c>
       <c r="K186" s="5">
         <v>721</v>
       </c>
-      <c r="L186" s="5">
-        <v>4.4569999999999999</v>
-      </c>
-      <c r="M186" s="5">
-        <v>290.44600000000003</v>
+      <c r="L186" s="7">
+        <v>4457</v>
+      </c>
+      <c r="M186" s="7">
+        <v>290446</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8414,14 +8428,14 @@
       <c r="F188" s="4">
         <v>8</v>
       </c>
-      <c r="G188" s="4">
-        <v>6.8090000000000002</v>
-      </c>
-      <c r="H188" s="4">
-        <v>20.219000000000001</v>
-      </c>
-      <c r="I188" s="4">
-        <v>3.5329999999999999</v>
+      <c r="G188" s="9">
+        <v>6809</v>
+      </c>
+      <c r="H188" s="9">
+        <v>20219</v>
+      </c>
+      <c r="I188" s="9">
+        <v>3533</v>
       </c>
       <c r="J188" s="4">
         <v>50</v>
@@ -8432,8 +8446,8 @@
       <c r="L188" s="4">
         <v>239</v>
       </c>
-      <c r="M188" s="5">
-        <v>31.048999999999999</v>
+      <c r="M188" s="7">
+        <v>31049</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8453,14 +8467,14 @@
       <c r="F189" s="4">
         <v>2</v>
       </c>
-      <c r="G189" s="4">
-        <v>5.4450000000000003</v>
-      </c>
-      <c r="H189" s="4">
-        <v>20.494</v>
-      </c>
-      <c r="I189" s="4">
-        <v>5.87</v>
+      <c r="G189" s="9">
+        <v>5445</v>
+      </c>
+      <c r="H189" s="9">
+        <v>20494</v>
+      </c>
+      <c r="I189" s="9">
+        <v>5870</v>
       </c>
       <c r="J189" s="4">
         <v>63</v>
@@ -8471,8 +8485,8 @@
       <c r="L189" s="4">
         <v>116</v>
       </c>
-      <c r="M189" s="5">
-        <v>32.185000000000002</v>
+      <c r="M189" s="7">
+        <v>32185</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8494,14 +8508,14 @@
       <c r="F190" s="4">
         <v>111</v>
       </c>
-      <c r="G190" s="4">
-        <v>4.5119999999999996</v>
-      </c>
-      <c r="H190" s="4">
-        <v>7.0670000000000002</v>
-      </c>
-      <c r="I190" s="4">
-        <v>7.367</v>
+      <c r="G190" s="9">
+        <v>4512</v>
+      </c>
+      <c r="H190" s="9">
+        <v>7067</v>
+      </c>
+      <c r="I190" s="9">
+        <v>7367</v>
       </c>
       <c r="J190" s="4">
         <v>571</v>
@@ -8512,8 +8526,8 @@
       <c r="L190" s="4">
         <v>106</v>
       </c>
-      <c r="M190" s="5">
-        <v>19.87</v>
+      <c r="M190" s="7">
+        <v>19870</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8533,14 +8547,14 @@
       <c r="F191" s="4">
         <v>140</v>
       </c>
-      <c r="G191" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="H191" s="4">
-        <v>5.444</v>
-      </c>
-      <c r="I191" s="4">
-        <v>9.6649999999999991</v>
+      <c r="G191" s="9">
+        <v>4700</v>
+      </c>
+      <c r="H191" s="9">
+        <v>5444</v>
+      </c>
+      <c r="I191" s="9">
+        <v>9665</v>
       </c>
       <c r="J191" s="4">
         <v>862</v>
@@ -8551,8 +8565,8 @@
       <c r="L191" s="4">
         <v>146</v>
       </c>
-      <c r="M191" s="5">
-        <v>21.428000000000001</v>
+      <c r="M191" s="7">
+        <v>21428</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8571,17 +8585,17 @@
       <c r="E192" s="4">
         <v>70</v>
       </c>
-      <c r="F192" s="4">
-        <v>2.379</v>
-      </c>
-      <c r="G192" s="4">
-        <v>2.1949999999999998</v>
-      </c>
-      <c r="H192" s="4">
-        <v>7.0880000000000001</v>
-      </c>
-      <c r="I192" s="4">
-        <v>6.6280000000000001</v>
+      <c r="F192" s="9">
+        <v>2379</v>
+      </c>
+      <c r="G192" s="9">
+        <v>2195</v>
+      </c>
+      <c r="H192" s="9">
+        <v>7088</v>
+      </c>
+      <c r="I192" s="9">
+        <v>6628</v>
       </c>
       <c r="J192" s="4">
         <v>710</v>
@@ -8592,8 +8606,8 @@
       <c r="L192" s="4">
         <v>130</v>
       </c>
-      <c r="M192" s="5">
-        <v>19.344999999999999</v>
+      <c r="M192" s="7">
+        <v>19345</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8610,20 +8624,20 @@
       <c r="E193" s="4">
         <v>330</v>
       </c>
-      <c r="F193" s="4">
-        <v>3.339</v>
-      </c>
-      <c r="G193" s="4">
-        <v>2.0950000000000002</v>
-      </c>
-      <c r="H193" s="4">
-        <v>6.2039999999999997</v>
-      </c>
-      <c r="I193" s="4">
-        <v>7.6689999999999996</v>
-      </c>
-      <c r="J193" s="4">
-        <v>1.0229999999999999</v>
+      <c r="F193" s="9">
+        <v>3339</v>
+      </c>
+      <c r="G193" s="9">
+        <v>2095</v>
+      </c>
+      <c r="H193" s="9">
+        <v>6204</v>
+      </c>
+      <c r="I193" s="9">
+        <v>7669</v>
+      </c>
+      <c r="J193" s="9">
+        <v>1023</v>
       </c>
       <c r="K193" s="4">
         <v>57</v>
@@ -8631,8 +8645,8 @@
       <c r="L193" s="4">
         <v>181</v>
       </c>
-      <c r="M193" s="5">
-        <v>21.259</v>
+      <c r="M193" s="7">
+        <v>21259</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8651,17 +8665,17 @@
       <c r="E194" s="4">
         <v>728</v>
       </c>
-      <c r="F194" s="4">
-        <v>3.18</v>
-      </c>
-      <c r="G194" s="4">
-        <v>2.1059999999999999</v>
-      </c>
-      <c r="H194" s="4">
-        <v>8.7439999999999998</v>
-      </c>
-      <c r="I194" s="4">
-        <v>6.11</v>
+      <c r="F194" s="9">
+        <v>3180</v>
+      </c>
+      <c r="G194" s="9">
+        <v>2106</v>
+      </c>
+      <c r="H194" s="9">
+        <v>8744</v>
+      </c>
+      <c r="I194" s="9">
+        <v>6110</v>
       </c>
       <c r="J194" s="4">
         <v>938</v>
@@ -8672,8 +8686,8 @@
       <c r="L194" s="4">
         <v>145</v>
       </c>
-      <c r="M194" s="5">
-        <v>22.155000000000001</v>
+      <c r="M194" s="7">
+        <v>22155</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8687,20 +8701,20 @@
       <c r="D195" s="4">
         <v>206</v>
       </c>
-      <c r="E195" s="4">
-        <v>3.4529999999999998</v>
-      </c>
-      <c r="F195" s="4">
-        <v>2.9279999999999999</v>
-      </c>
-      <c r="G195" s="4">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="H195" s="4">
-        <v>7.431</v>
-      </c>
-      <c r="I195" s="4">
-        <v>5.9450000000000003</v>
+      <c r="E195" s="9">
+        <v>3453</v>
+      </c>
+      <c r="F195" s="9">
+        <v>2928</v>
+      </c>
+      <c r="G195" s="9">
+        <v>2332</v>
+      </c>
+      <c r="H195" s="9">
+        <v>7431</v>
+      </c>
+      <c r="I195" s="9">
+        <v>5945</v>
       </c>
       <c r="J195" s="4">
         <v>969</v>
@@ -8711,8 +8725,8 @@
       <c r="L195" s="4">
         <v>174</v>
       </c>
-      <c r="M195" s="5">
-        <v>23.614999999999998</v>
+      <c r="M195" s="7">
+        <v>23615</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8728,20 +8742,20 @@
       <c r="D196" s="4">
         <v>31</v>
       </c>
-      <c r="E196" s="4">
-        <v>1.514</v>
-      </c>
-      <c r="F196" s="4">
-        <v>2.6619999999999999</v>
-      </c>
-      <c r="G196" s="4">
-        <v>3.6389999999999998</v>
-      </c>
-      <c r="H196" s="4">
-        <v>9.0649999999999995</v>
-      </c>
-      <c r="I196" s="4">
-        <v>5.5229999999999997</v>
+      <c r="E196" s="9">
+        <v>1514</v>
+      </c>
+      <c r="F196" s="9">
+        <v>2662</v>
+      </c>
+      <c r="G196" s="9">
+        <v>3639</v>
+      </c>
+      <c r="H196" s="9">
+        <v>9065</v>
+      </c>
+      <c r="I196" s="9">
+        <v>5523</v>
       </c>
       <c r="J196" s="4">
         <v>945</v>
@@ -8752,8 +8766,8 @@
       <c r="L196" s="4">
         <v>151</v>
       </c>
-      <c r="M196" s="5">
-        <v>23.709</v>
+      <c r="M196" s="7">
+        <v>23709</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8767,20 +8781,20 @@
       <c r="D197" s="4">
         <v>156</v>
       </c>
-      <c r="E197" s="4">
-        <v>5.4969999999999999</v>
-      </c>
-      <c r="F197" s="4">
-        <v>2.1030000000000002</v>
-      </c>
-      <c r="G197" s="4">
-        <v>3.5219999999999998</v>
-      </c>
-      <c r="H197" s="4">
-        <v>6.8760000000000003</v>
-      </c>
-      <c r="I197" s="4">
-        <v>4.7069999999999999</v>
+      <c r="E197" s="9">
+        <v>5497</v>
+      </c>
+      <c r="F197" s="9">
+        <v>2103</v>
+      </c>
+      <c r="G197" s="9">
+        <v>3522</v>
+      </c>
+      <c r="H197" s="9">
+        <v>6876</v>
+      </c>
+      <c r="I197" s="9">
+        <v>4707</v>
       </c>
       <c r="J197" s="4">
         <v>813</v>
@@ -8791,8 +8805,8 @@
       <c r="L197" s="4">
         <v>168</v>
       </c>
-      <c r="M197" s="5">
-        <v>24.062999999999999</v>
+      <c r="M197" s="7">
+        <v>24063</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8808,20 +8822,20 @@
       <c r="D198" s="4">
         <v>23</v>
       </c>
-      <c r="E198" s="4">
-        <v>2.0129999999999999</v>
-      </c>
-      <c r="F198" s="4">
-        <v>3.2360000000000002</v>
-      </c>
-      <c r="G198" s="4">
-        <v>3.2509999999999999</v>
-      </c>
-      <c r="H198" s="4">
-        <v>6.49</v>
-      </c>
-      <c r="I198" s="4">
-        <v>4.6189999999999998</v>
+      <c r="E198" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F198" s="9">
+        <v>3236</v>
+      </c>
+      <c r="G198" s="9">
+        <v>3251</v>
+      </c>
+      <c r="H198" s="9">
+        <v>6490</v>
+      </c>
+      <c r="I198" s="9">
+        <v>4619</v>
       </c>
       <c r="J198" s="4">
         <v>636</v>
@@ -8832,8 +8846,8 @@
       <c r="L198" s="4">
         <v>193</v>
       </c>
-      <c r="M198" s="5">
-        <v>20.672999999999998</v>
+      <c r="M198" s="7">
+        <v>20673</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8847,20 +8861,20 @@
       <c r="D199" s="4">
         <v>156</v>
       </c>
-      <c r="E199" s="4">
-        <v>6.1950000000000003</v>
-      </c>
-      <c r="F199" s="4">
-        <v>2.2509999999999999</v>
-      </c>
-      <c r="G199" s="4">
-        <v>2.988</v>
-      </c>
-      <c r="H199" s="4">
-        <v>4.7709999999999999</v>
-      </c>
-      <c r="I199" s="4">
-        <v>3.056</v>
+      <c r="E199" s="9">
+        <v>6195</v>
+      </c>
+      <c r="F199" s="9">
+        <v>2251</v>
+      </c>
+      <c r="G199" s="9">
+        <v>2988</v>
+      </c>
+      <c r="H199" s="9">
+        <v>4771</v>
+      </c>
+      <c r="I199" s="9">
+        <v>3056</v>
       </c>
       <c r="J199" s="4">
         <v>343</v>
@@ -8871,8 +8885,8 @@
       <c r="L199" s="4">
         <v>215</v>
       </c>
-      <c r="M199" s="5">
-        <v>20.210999999999999</v>
+      <c r="M199" s="7">
+        <v>20211</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8888,20 +8902,20 @@
       <c r="D200" s="4">
         <v>27</v>
       </c>
-      <c r="E200" s="4">
-        <v>2.0550000000000002</v>
-      </c>
-      <c r="F200" s="4">
-        <v>3.29</v>
-      </c>
-      <c r="G200" s="4">
-        <v>3.2789999999999999</v>
-      </c>
-      <c r="H200" s="4">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="I200" s="4">
-        <v>3.5779999999999998</v>
+      <c r="E200" s="9">
+        <v>2055</v>
+      </c>
+      <c r="F200" s="9">
+        <v>3290</v>
+      </c>
+      <c r="G200" s="9">
+        <v>3279</v>
+      </c>
+      <c r="H200" s="9">
+        <v>4520</v>
+      </c>
+      <c r="I200" s="9">
+        <v>3578</v>
       </c>
       <c r="J200" s="4">
         <v>464</v>
@@ -8912,8 +8926,8 @@
       <c r="L200" s="4">
         <v>217</v>
       </c>
-      <c r="M200" s="5">
-        <v>17.616</v>
+      <c r="M200" s="7">
+        <v>17616</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8927,20 +8941,20 @@
       <c r="D201" s="4">
         <v>300</v>
       </c>
-      <c r="E201" s="4">
-        <v>6.7370000000000001</v>
-      </c>
-      <c r="F201" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G201" s="4">
-        <v>2.6840000000000002</v>
-      </c>
-      <c r="H201" s="4">
-        <v>3.4359999999999999</v>
-      </c>
-      <c r="I201" s="4">
-        <v>1.6659999999999999</v>
+      <c r="E201" s="9">
+        <v>6737</v>
+      </c>
+      <c r="F201" s="9">
+        <v>2200</v>
+      </c>
+      <c r="G201" s="9">
+        <v>2684</v>
+      </c>
+      <c r="H201" s="9">
+        <v>3436</v>
+      </c>
+      <c r="I201" s="9">
+        <v>1666</v>
       </c>
       <c r="J201" s="4">
         <v>214</v>
@@ -8951,8 +8965,8 @@
       <c r="L201" s="4">
         <v>263</v>
       </c>
-      <c r="M201" s="5">
-        <v>17.754000000000001</v>
+      <c r="M201" s="7">
+        <v>17754</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8968,20 +8982,20 @@
       <c r="D202" s="4">
         <v>52</v>
       </c>
-      <c r="E202" s="4">
-        <v>2.6030000000000002</v>
-      </c>
-      <c r="F202" s="4">
-        <v>2.7719999999999998</v>
-      </c>
-      <c r="G202" s="4">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="H202" s="4">
-        <v>3.2909999999999999</v>
-      </c>
-      <c r="I202" s="4">
-        <v>2.4</v>
+      <c r="E202" s="9">
+        <v>2603</v>
+      </c>
+      <c r="F202" s="9">
+        <v>2772</v>
+      </c>
+      <c r="G202" s="9">
+        <v>2586</v>
+      </c>
+      <c r="H202" s="9">
+        <v>3291</v>
+      </c>
+      <c r="I202" s="9">
+        <v>2400</v>
       </c>
       <c r="J202" s="4">
         <v>339</v>
@@ -8992,8 +9006,8 @@
       <c r="L202" s="4">
         <v>247</v>
       </c>
-      <c r="M202" s="5">
-        <v>14.468999999999999</v>
+      <c r="M202" s="7">
+        <v>14469</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9007,17 +9021,17 @@
       <c r="D203" s="4">
         <v>514</v>
       </c>
-      <c r="E203" s="4">
-        <v>7.2539999999999996</v>
-      </c>
-      <c r="F203" s="4">
-        <v>1.446</v>
-      </c>
-      <c r="G203" s="4">
-        <v>1.827</v>
-      </c>
-      <c r="H203" s="4">
-        <v>2.286</v>
+      <c r="E203" s="9">
+        <v>7254</v>
+      </c>
+      <c r="F203" s="9">
+        <v>1446</v>
+      </c>
+      <c r="G203" s="9">
+        <v>1827</v>
+      </c>
+      <c r="H203" s="9">
+        <v>2286</v>
       </c>
       <c r="I203" s="4">
         <v>862</v>
@@ -9031,8 +9045,8 @@
       <c r="L203" s="4">
         <v>261</v>
       </c>
-      <c r="M203" s="5">
-        <v>14.887</v>
+      <c r="M203" s="7">
+        <v>14887</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9048,20 +9062,20 @@
       <c r="D204" s="4">
         <v>87</v>
       </c>
-      <c r="E204" s="4">
-        <v>3.6480000000000001</v>
-      </c>
-      <c r="F204" s="4">
-        <v>1.498</v>
-      </c>
-      <c r="G204" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="H204" s="4">
-        <v>2.802</v>
-      </c>
-      <c r="I204" s="4">
-        <v>1.756</v>
+      <c r="E204" s="9">
+        <v>3648</v>
+      </c>
+      <c r="F204" s="9">
+        <v>1498</v>
+      </c>
+      <c r="G204" s="9">
+        <v>1820</v>
+      </c>
+      <c r="H204" s="9">
+        <v>2802</v>
+      </c>
+      <c r="I204" s="9">
+        <v>1756</v>
       </c>
       <c r="J204" s="4">
         <v>145</v>
@@ -9072,8 +9086,8 @@
       <c r="L204" s="4">
         <v>242</v>
       </c>
-      <c r="M204" s="5">
-        <v>12.115</v>
+      <c r="M204" s="7">
+        <v>12115</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9087,17 +9101,17 @@
       <c r="D205" s="4">
         <v>839</v>
       </c>
-      <c r="E205" s="4">
-        <v>7.0410000000000004</v>
+      <c r="E205" s="9">
+        <v>7041</v>
       </c>
       <c r="F205" s="4">
         <v>663</v>
       </c>
-      <c r="G205" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="H205" s="4">
-        <v>1.5569999999999999</v>
+      <c r="G205" s="9">
+        <v>1016</v>
+      </c>
+      <c r="H205" s="9">
+        <v>1557</v>
       </c>
       <c r="I205" s="4">
         <v>545</v>
@@ -9111,8 +9125,8 @@
       <c r="L205" s="4">
         <v>242</v>
       </c>
-      <c r="M205" s="5">
-        <v>12.454000000000001</v>
+      <c r="M205" s="7">
+        <v>12454</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9128,20 +9142,20 @@
       <c r="D206" s="4">
         <v>111</v>
       </c>
-      <c r="E206" s="4">
-        <v>3.8410000000000002</v>
+      <c r="E206" s="9">
+        <v>3841</v>
       </c>
       <c r="F206" s="4">
         <v>554</v>
       </c>
-      <c r="G206" s="4">
-        <v>1.262</v>
-      </c>
-      <c r="H206" s="4">
-        <v>1.6479999999999999</v>
-      </c>
-      <c r="I206" s="4">
-        <v>1.47</v>
+      <c r="G206" s="9">
+        <v>1262</v>
+      </c>
+      <c r="H206" s="9">
+        <v>1648</v>
+      </c>
+      <c r="I206" s="9">
+        <v>1470</v>
       </c>
       <c r="J206" s="4">
         <v>83</v>
@@ -9152,8 +9166,8 @@
       <c r="L206" s="4">
         <v>223</v>
       </c>
-      <c r="M206" s="5">
-        <v>9.2910000000000004</v>
+      <c r="M206" s="7">
+        <v>9291</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9164,11 +9178,11 @@
       <c r="C207" s="4">
         <v>753</v>
       </c>
-      <c r="D207" s="4">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="E207" s="4">
-        <v>5.274</v>
+      <c r="D207" s="9">
+        <v>1188</v>
+      </c>
+      <c r="E207" s="9">
+        <v>5274</v>
       </c>
       <c r="F207" s="4">
         <v>229</v>
@@ -9191,8 +9205,8 @@
       <c r="L207" s="4">
         <v>230</v>
       </c>
-      <c r="M207" s="5">
-        <v>9.4269999999999996</v>
+      <c r="M207" s="7">
+        <v>9427</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9208,8 +9222,8 @@
       <c r="D208" s="4">
         <v>170</v>
       </c>
-      <c r="E208" s="4">
-        <v>3.0529999999999999</v>
+      <c r="E208" s="9">
+        <v>3053</v>
       </c>
       <c r="F208" s="4">
         <v>167</v>
@@ -9232,8 +9246,8 @@
       <c r="L208" s="4">
         <v>170</v>
       </c>
-      <c r="M208" s="5">
-        <v>6.069</v>
+      <c r="M208" s="7">
+        <v>6069</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9244,11 +9258,11 @@
       <c r="C209" s="4">
         <v>959</v>
       </c>
-      <c r="D209" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="E209" s="4">
-        <v>3.2949999999999999</v>
+      <c r="D209" s="9">
+        <v>1230</v>
+      </c>
+      <c r="E209" s="9">
+        <v>3295</v>
       </c>
       <c r="F209" s="4">
         <v>51</v>
@@ -9271,8 +9285,8 @@
       <c r="L209" s="4">
         <v>230</v>
       </c>
-      <c r="M209" s="5">
-        <v>6.6059999999999999</v>
+      <c r="M209" s="7">
+        <v>6606</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9288,8 +9302,8 @@
       <c r="D210" s="4">
         <v>484</v>
       </c>
-      <c r="E210" s="4">
-        <v>3.45</v>
+      <c r="E210" s="9">
+        <v>3450</v>
       </c>
       <c r="F210" s="4">
         <v>52</v>
@@ -9312,8 +9326,8 @@
       <c r="L210" s="4">
         <v>228</v>
       </c>
-      <c r="M210" s="5">
-        <v>6.06</v>
+      <c r="M210" s="7">
+        <v>6060</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9321,14 +9335,14 @@
       <c r="B211" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="4">
-        <v>2.399</v>
-      </c>
-      <c r="D211" s="4">
-        <v>2.4860000000000002</v>
-      </c>
-      <c r="E211" s="4">
-        <v>3.2010000000000001</v>
+      <c r="C211" s="9">
+        <v>2399</v>
+      </c>
+      <c r="D211" s="9">
+        <v>2486</v>
+      </c>
+      <c r="E211" s="9">
+        <v>3201</v>
       </c>
       <c r="F211" s="4">
         <v>21</v>
@@ -9351,8 +9365,8 @@
       <c r="L211" s="4">
         <v>292</v>
       </c>
-      <c r="M211" s="5">
-        <v>8.8759999999999994</v>
+      <c r="M211" s="7">
+        <v>8876</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9360,38 +9374,38 @@
         <v>12</v>
       </c>
       <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>5.7489999999999997</v>
-      </c>
-      <c r="D212" s="5">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="E212" s="5">
-        <v>71.864000000000004</v>
-      </c>
-      <c r="F212" s="5">
-        <v>35.281999999999996</v>
-      </c>
-      <c r="G212" s="5">
-        <v>60.122</v>
-      </c>
-      <c r="H212" s="5">
-        <v>132.08600000000001</v>
-      </c>
-      <c r="I212" s="5">
-        <v>85.251000000000005</v>
-      </c>
-      <c r="J212" s="5">
-        <v>9.4209999999999994</v>
-      </c>
-      <c r="K212" s="5">
-        <v>1.7170000000000001</v>
-      </c>
-      <c r="L212" s="5">
-        <v>4.8090000000000002</v>
-      </c>
-      <c r="M212" s="5">
-        <v>415.18599999999998</v>
+      <c r="C212" s="7">
+        <v>5749</v>
+      </c>
+      <c r="D212" s="7">
+        <v>8885</v>
+      </c>
+      <c r="E212" s="7">
+        <v>71864</v>
+      </c>
+      <c r="F212" s="7">
+        <v>35282</v>
+      </c>
+      <c r="G212" s="7">
+        <v>60122</v>
+      </c>
+      <c r="H212" s="7">
+        <v>132086</v>
+      </c>
+      <c r="I212" s="7">
+        <v>85251</v>
+      </c>
+      <c r="J212" s="7">
+        <v>9421</v>
+      </c>
+      <c r="K212" s="7">
+        <v>1717</v>
+      </c>
+      <c r="L212" s="7">
+        <v>4809</v>
+      </c>
+      <c r="M212" s="7">
+        <v>415186</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10428,8 +10442,8 @@
       <c r="L238" s="5">
         <v>274</v>
       </c>
-      <c r="M238" s="5">
-        <v>3.2759999999999998</v>
+      <c r="M238" s="7">
+        <v>3276</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10508,8 +10522,8 @@
       <c r="L240" s="4">
         <v>9</v>
       </c>
-      <c r="M240" s="5">
-        <v>1.054</v>
+      <c r="M240" s="7">
+        <v>1054</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10547,8 +10561,8 @@
       <c r="L241" s="4">
         <v>4</v>
       </c>
-      <c r="M241" s="5">
-        <v>1.0249999999999999</v>
+      <c r="M241" s="7">
+        <v>1025</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -11442,20 +11456,20 @@
       <c r="D264" s="5">
         <v>891</v>
       </c>
-      <c r="E264" s="5">
-        <v>5.4139999999999997</v>
-      </c>
-      <c r="F264" s="5">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="G264" s="5">
-        <v>2.3079999999999998</v>
-      </c>
-      <c r="H264" s="5">
-        <v>3.879</v>
-      </c>
-      <c r="I264" s="5">
-        <v>1.944</v>
+      <c r="E264" s="7">
+        <v>5414</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1434</v>
+      </c>
+      <c r="G264" s="7">
+        <v>2308</v>
+      </c>
+      <c r="H264" s="7">
+        <v>3879</v>
+      </c>
+      <c r="I264" s="7">
+        <v>1944</v>
       </c>
       <c r="J264" s="5">
         <v>123</v>
@@ -11466,8 +11480,8 @@
       <c r="L264" s="5">
         <v>233</v>
       </c>
-      <c r="M264" s="5">
-        <v>16.981000000000002</v>
+      <c r="M264" s="7">
+        <v>16981</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12480,17 +12494,17 @@
       <c r="D290" s="5">
         <v>765</v>
       </c>
-      <c r="E290" s="5">
-        <v>2.7</v>
+      <c r="E290" s="7">
+        <v>2700</v>
       </c>
       <c r="F290" s="5">
         <v>807</v>
       </c>
-      <c r="G290" s="5">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="H290" s="5">
-        <v>2.294</v>
+      <c r="G290" s="7">
+        <v>1816</v>
+      </c>
+      <c r="H290" s="7">
+        <v>2294</v>
       </c>
       <c r="I290" s="5">
         <v>847</v>
@@ -12504,8 +12518,8 @@
       <c r="L290" s="5">
         <v>677</v>
       </c>
-      <c r="M290" s="5">
-        <v>10.587</v>
+      <c r="M290" s="7">
+        <v>10587</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13518,17 +13532,17 @@
       <c r="D316" s="5">
         <v>500</v>
       </c>
-      <c r="E316" s="5">
-        <v>2.2349999999999999</v>
+      <c r="E316" s="7">
+        <v>2235</v>
       </c>
       <c r="F316" s="5">
         <v>615</v>
       </c>
-      <c r="G316" s="5">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="H316" s="5">
-        <v>1.8480000000000001</v>
+      <c r="G316" s="7">
+        <v>1082</v>
+      </c>
+      <c r="H316" s="7">
+        <v>1848</v>
       </c>
       <c r="I316" s="5">
         <v>760</v>
@@ -13542,8 +13556,8 @@
       <c r="L316" s="5">
         <v>323</v>
       </c>
-      <c r="M316" s="5">
-        <v>7.9809999999999999</v>
+      <c r="M316" s="7">
+        <v>7981</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13604,14 +13618,14 @@
       <c r="F318" s="4">
         <v>2</v>
       </c>
-      <c r="G318" s="4">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="H318" s="4">
-        <v>5.5380000000000003</v>
-      </c>
-      <c r="I318" s="4">
-        <v>1.2010000000000001</v>
+      <c r="G318" s="9">
+        <v>1495</v>
+      </c>
+      <c r="H318" s="9">
+        <v>5538</v>
+      </c>
+      <c r="I318" s="9">
+        <v>1201</v>
       </c>
       <c r="J318" s="4">
         <v>26</v>
@@ -13622,8 +13636,8 @@
       <c r="L318" s="4">
         <v>66</v>
       </c>
-      <c r="M318" s="5">
-        <v>8.3559999999999999</v>
+      <c r="M318" s="7">
+        <v>8356</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13643,14 +13657,14 @@
       <c r="F319" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G319" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H319" s="4">
-        <v>5.633</v>
-      </c>
-      <c r="I319" s="4">
-        <v>1.66</v>
+      <c r="G319" s="9">
+        <v>1100</v>
+      </c>
+      <c r="H319" s="9">
+        <v>5633</v>
+      </c>
+      <c r="I319" s="9">
+        <v>1660</v>
       </c>
       <c r="J319" s="4">
         <v>27</v>
@@ -13661,8 +13675,8 @@
       <c r="L319" s="4">
         <v>27</v>
       </c>
-      <c r="M319" s="5">
-        <v>8.4730000000000008</v>
+      <c r="M319" s="7">
+        <v>8473</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13687,11 +13701,11 @@
       <c r="G320" s="4">
         <v>921</v>
       </c>
-      <c r="H320" s="4">
-        <v>1.98</v>
-      </c>
-      <c r="I320" s="4">
-        <v>2.8410000000000002</v>
+      <c r="H320" s="9">
+        <v>1980</v>
+      </c>
+      <c r="I320" s="9">
+        <v>2841</v>
       </c>
       <c r="J320" s="4">
         <v>381</v>
@@ -13702,8 +13716,8 @@
       <c r="L320" s="4">
         <v>35</v>
       </c>
-      <c r="M320" s="5">
-        <v>6.1870000000000003</v>
+      <c r="M320" s="7">
+        <v>6187</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13726,11 +13740,11 @@
       <c r="G321" s="4">
         <v>927</v>
       </c>
-      <c r="H321" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="I321" s="4">
-        <v>3.6070000000000002</v>
+      <c r="H321" s="9">
+        <v>1460</v>
+      </c>
+      <c r="I321" s="9">
+        <v>3607</v>
       </c>
       <c r="J321" s="4">
         <v>544</v>
@@ -13741,8 +13755,8 @@
       <c r="L321" s="4">
         <v>37</v>
       </c>
-      <c r="M321" s="5">
-        <v>6.6520000000000001</v>
+      <c r="M321" s="7">
+        <v>6652</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13767,11 +13781,11 @@
       <c r="G322" s="4">
         <v>418</v>
       </c>
-      <c r="H322" s="4">
-        <v>1.7529999999999999</v>
-      </c>
-      <c r="I322" s="4">
-        <v>2.6819999999999999</v>
+      <c r="H322" s="9">
+        <v>1753</v>
+      </c>
+      <c r="I322" s="9">
+        <v>2682</v>
       </c>
       <c r="J322" s="4">
         <v>494</v>
@@ -13782,8 +13796,8 @@
       <c r="L322" s="4">
         <v>53</v>
       </c>
-      <c r="M322" s="5">
-        <v>5.9420000000000002</v>
+      <c r="M322" s="7">
+        <v>5942</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13806,11 +13820,11 @@
       <c r="G323" s="4">
         <v>394</v>
       </c>
-      <c r="H323" s="4">
-        <v>1.548</v>
-      </c>
-      <c r="I323" s="4">
-        <v>3.1850000000000001</v>
+      <c r="H323" s="9">
+        <v>1548</v>
+      </c>
+      <c r="I323" s="9">
+        <v>3185</v>
       </c>
       <c r="J323" s="4">
         <v>591</v>
@@ -13821,8 +13835,8 @@
       <c r="L323" s="4">
         <v>52</v>
       </c>
-      <c r="M323" s="5">
-        <v>6.6050000000000004</v>
+      <c r="M323" s="7">
+        <v>6605</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13847,11 +13861,11 @@
       <c r="G324" s="4">
         <v>410</v>
       </c>
-      <c r="H324" s="4">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="I324" s="4">
-        <v>2.58</v>
+      <c r="H324" s="9">
+        <v>2107</v>
+      </c>
+      <c r="I324" s="9">
+        <v>2580</v>
       </c>
       <c r="J324" s="4">
         <v>522</v>
@@ -13862,8 +13876,8 @@
       <c r="L324" s="4">
         <v>42</v>
       </c>
-      <c r="M324" s="5">
-        <v>6.5220000000000002</v>
+      <c r="M324" s="7">
+        <v>6522</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13886,11 +13900,11 @@
       <c r="G325" s="4">
         <v>480</v>
       </c>
-      <c r="H325" s="4">
-        <v>1.899</v>
-      </c>
-      <c r="I325" s="4">
-        <v>2.6579999999999999</v>
+      <c r="H325" s="9">
+        <v>1899</v>
+      </c>
+      <c r="I325" s="9">
+        <v>2658</v>
       </c>
       <c r="J325" s="4">
         <v>503</v>
@@ -13901,8 +13915,8 @@
       <c r="L325" s="4">
         <v>45</v>
       </c>
-      <c r="M325" s="5">
-        <v>6.9880000000000004</v>
+      <c r="M325" s="7">
+        <v>6988</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13927,11 +13941,11 @@
       <c r="G326" s="4">
         <v>715</v>
       </c>
-      <c r="H326" s="4">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="I326" s="4">
-        <v>2.3639999999999999</v>
+      <c r="H326" s="9">
+        <v>2219</v>
+      </c>
+      <c r="I326" s="9">
+        <v>2364</v>
       </c>
       <c r="J326" s="4">
         <v>506</v>
@@ -13942,8 +13956,8 @@
       <c r="L326" s="4">
         <v>43</v>
       </c>
-      <c r="M326" s="5">
-        <v>6.7190000000000003</v>
+      <c r="M326" s="7">
+        <v>6719</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13957,8 +13971,8 @@
       <c r="D327" s="4">
         <v>24</v>
       </c>
-      <c r="E327" s="4">
-        <v>1.212</v>
+      <c r="E327" s="9">
+        <v>1212</v>
       </c>
       <c r="F327" s="4">
         <v>408</v>
@@ -13966,11 +13980,11 @@
       <c r="G327" s="4">
         <v>688</v>
       </c>
-      <c r="H327" s="4">
-        <v>1.9370000000000001</v>
-      </c>
-      <c r="I327" s="4">
-        <v>2.1469999999999998</v>
+      <c r="H327" s="9">
+        <v>1937</v>
+      </c>
+      <c r="I327" s="9">
+        <v>2147</v>
       </c>
       <c r="J327" s="4">
         <v>431</v>
@@ -13981,8 +13995,8 @@
       <c r="L327" s="4">
         <v>48</v>
       </c>
-      <c r="M327" s="5">
-        <v>6.9989999999999997</v>
+      <c r="M327" s="7">
+        <v>6999</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14007,11 +14021,11 @@
       <c r="G328" s="4">
         <v>692</v>
       </c>
-      <c r="H328" s="4">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="I328" s="4">
-        <v>1.8360000000000001</v>
+      <c r="H328" s="9">
+        <v>1555</v>
+      </c>
+      <c r="I328" s="9">
+        <v>1836</v>
       </c>
       <c r="J328" s="4">
         <v>313</v>
@@ -14022,8 +14036,8 @@
       <c r="L328" s="4">
         <v>79</v>
       </c>
-      <c r="M328" s="5">
-        <v>5.6180000000000003</v>
+      <c r="M328" s="7">
+        <v>5618</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14037,8 +14051,8 @@
       <c r="D329" s="4">
         <v>34</v>
       </c>
-      <c r="E329" s="4">
-        <v>1.4239999999999999</v>
+      <c r="E329" s="9">
+        <v>1424</v>
       </c>
       <c r="F329" s="4">
         <v>511</v>
@@ -14046,11 +14060,11 @@
       <c r="G329" s="4">
         <v>693</v>
       </c>
-      <c r="H329" s="4">
-        <v>1.538</v>
-      </c>
-      <c r="I329" s="4">
-        <v>1.3979999999999999</v>
+      <c r="H329" s="9">
+        <v>1538</v>
+      </c>
+      <c r="I329" s="9">
+        <v>1398</v>
       </c>
       <c r="J329" s="4">
         <v>158</v>
@@ -14061,8 +14075,8 @@
       <c r="L329" s="4">
         <v>50</v>
       </c>
-      <c r="M329" s="5">
-        <v>5.8849999999999998</v>
+      <c r="M329" s="7">
+        <v>5885</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14087,11 +14101,11 @@
       <c r="G330" s="4">
         <v>795</v>
       </c>
-      <c r="H330" s="4">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="I330" s="4">
-        <v>1.397</v>
+      <c r="H330" s="9">
+        <v>1253</v>
+      </c>
+      <c r="I330" s="9">
+        <v>1397</v>
       </c>
       <c r="J330" s="4">
         <v>182</v>
@@ -14102,8 +14116,8 @@
       <c r="L330" s="4">
         <v>65</v>
       </c>
-      <c r="M330" s="5">
-        <v>4.7910000000000004</v>
+      <c r="M330" s="7">
+        <v>4791</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14117,8 +14131,8 @@
       <c r="D331" s="4">
         <v>61</v>
       </c>
-      <c r="E331" s="4">
-        <v>1.6419999999999999</v>
+      <c r="E331" s="9">
+        <v>1642</v>
       </c>
       <c r="F331" s="4">
         <v>508</v>
@@ -14126,8 +14140,8 @@
       <c r="G331" s="4">
         <v>702</v>
       </c>
-      <c r="H331" s="4">
-        <v>1.0669999999999999</v>
+      <c r="H331" s="9">
+        <v>1067</v>
       </c>
       <c r="I331" s="4">
         <v>657</v>
@@ -14141,8 +14155,8 @@
       <c r="L331" s="4">
         <v>87</v>
       </c>
-      <c r="M331" s="5">
-        <v>4.851</v>
+      <c r="M331" s="7">
+        <v>4851</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14182,8 +14196,8 @@
       <c r="L332" s="4">
         <v>73</v>
       </c>
-      <c r="M332" s="5">
-        <v>3.9649999999999999</v>
+      <c r="M332" s="7">
+        <v>3965</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14197,8 +14211,8 @@
       <c r="D333" s="4">
         <v>129</v>
       </c>
-      <c r="E333" s="4">
-        <v>1.7230000000000001</v>
+      <c r="E333" s="9">
+        <v>1723</v>
       </c>
       <c r="F333" s="4">
         <v>350</v>
@@ -14221,8 +14235,8 @@
       <c r="L333" s="4">
         <v>72</v>
       </c>
-      <c r="M333" s="5">
-        <v>3.931</v>
+      <c r="M333" s="7">
+        <v>3931</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14262,8 +14276,8 @@
       <c r="L334" s="4">
         <v>74</v>
       </c>
-      <c r="M334" s="5">
-        <v>3.1539999999999999</v>
+      <c r="M334" s="7">
+        <v>3154</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14277,8 +14291,8 @@
       <c r="D335" s="4">
         <v>235</v>
       </c>
-      <c r="E335" s="4">
-        <v>1.7609999999999999</v>
+      <c r="E335" s="9">
+        <v>1761</v>
       </c>
       <c r="F335" s="4">
         <v>183</v>
@@ -14301,8 +14315,8 @@
       <c r="L335" s="4">
         <v>73</v>
       </c>
-      <c r="M335" s="5">
-        <v>3.319</v>
+      <c r="M335" s="7">
+        <v>3319</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14342,8 +14356,8 @@
       <c r="L336" s="4">
         <v>65</v>
       </c>
-      <c r="M336" s="5">
-        <v>2.4180000000000001</v>
+      <c r="M336" s="7">
+        <v>2418</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14357,8 +14371,8 @@
       <c r="D337" s="4">
         <v>281</v>
       </c>
-      <c r="E337" s="4">
-        <v>1.4370000000000001</v>
+      <c r="E337" s="9">
+        <v>1437</v>
       </c>
       <c r="F337" s="4">
         <v>60</v>
@@ -14381,8 +14395,8 @@
       <c r="L337" s="4">
         <v>60</v>
       </c>
-      <c r="M337" s="5">
-        <v>2.5379999999999998</v>
+      <c r="M337" s="7">
+        <v>2538</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14422,8 +14436,8 @@
       <c r="L338" s="4">
         <v>34</v>
       </c>
-      <c r="M338" s="5">
-        <v>1.639</v>
+      <c r="M338" s="7">
+        <v>1639</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14461,8 +14475,8 @@
       <c r="L339" s="4">
         <v>44</v>
       </c>
-      <c r="M339" s="5">
-        <v>1.8819999999999999</v>
+      <c r="M339" s="7">
+        <v>1882</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14502,8 +14516,8 @@
       <c r="L340" s="4">
         <v>64</v>
       </c>
-      <c r="M340" s="5">
-        <v>1.518</v>
+      <c r="M340" s="7">
+        <v>1518</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14541,8 +14555,8 @@
       <c r="L341" s="4">
         <v>72</v>
       </c>
-      <c r="M341" s="5">
-        <v>2.2919999999999998</v>
+      <c r="M341" s="7">
+        <v>2292</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -14550,38 +14564,38 @@
         <v>12</v>
       </c>
       <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>1.345</v>
-      </c>
-      <c r="D342" s="5">
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="E342" s="5">
-        <v>17.363</v>
-      </c>
-      <c r="F342" s="5">
-        <v>6.8029999999999999</v>
-      </c>
-      <c r="G342" s="5">
-        <v>13.33</v>
-      </c>
-      <c r="H342" s="5">
-        <v>35.741</v>
-      </c>
-      <c r="I342" s="5">
-        <v>33.264000000000003</v>
-      </c>
-      <c r="J342" s="5">
-        <v>4.9930000000000003</v>
-      </c>
-      <c r="K342" s="5">
-        <v>1.042</v>
-      </c>
-      <c r="L342" s="5">
-        <v>1.36</v>
-      </c>
-      <c r="M342" s="5">
-        <v>117.244</v>
+      <c r="C342" s="7">
+        <v>1345</v>
+      </c>
+      <c r="D342" s="7">
+        <v>2003</v>
+      </c>
+      <c r="E342" s="7">
+        <v>17363</v>
+      </c>
+      <c r="F342" s="7">
+        <v>6803</v>
+      </c>
+      <c r="G342" s="7">
+        <v>13330</v>
+      </c>
+      <c r="H342" s="7">
+        <v>35741</v>
+      </c>
+      <c r="I342" s="7">
+        <v>33264</v>
+      </c>
+      <c r="J342" s="7">
+        <v>4993</v>
+      </c>
+      <c r="K342" s="7">
+        <v>1042</v>
+      </c>
+      <c r="L342" s="7">
+        <v>1360</v>
+      </c>
+      <c r="M342" s="7">
+        <v>117244</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14660,8 +14674,8 @@
       <c r="L344" s="4">
         <v>14</v>
       </c>
-      <c r="M344" s="5">
-        <v>1.127</v>
+      <c r="M344" s="7">
+        <v>1127</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14699,8 +14713,8 @@
       <c r="L345" s="4">
         <v>5</v>
       </c>
-      <c r="M345" s="5">
-        <v>1.1040000000000001</v>
+      <c r="M345" s="7">
+        <v>1104</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -15594,20 +15608,20 @@
       <c r="D368" s="5">
         <v>870</v>
       </c>
-      <c r="E368" s="5">
-        <v>5.3209999999999997</v>
-      </c>
-      <c r="F368" s="5">
-        <v>1.478</v>
-      </c>
-      <c r="G368" s="5">
-        <v>2.6070000000000002</v>
-      </c>
-      <c r="H368" s="5">
-        <v>3.5230000000000001</v>
-      </c>
-      <c r="I368" s="5">
-        <v>1.256</v>
+      <c r="E368" s="7">
+        <v>5321</v>
+      </c>
+      <c r="F368" s="7">
+        <v>1478</v>
+      </c>
+      <c r="G368" s="7">
+        <v>2607</v>
+      </c>
+      <c r="H368" s="7">
+        <v>3523</v>
+      </c>
+      <c r="I368" s="7">
+        <v>1256</v>
       </c>
       <c r="J368" s="5">
         <v>82</v>
@@ -15618,8 +15632,8 @@
       <c r="L368" s="5">
         <v>282</v>
       </c>
-      <c r="M368" s="5">
-        <v>16.353999999999999</v>
+      <c r="M368" s="7">
+        <v>16354</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15683,8 +15697,8 @@
       <c r="G370" s="4">
         <v>512</v>
       </c>
-      <c r="H370" s="4">
-        <v>1.2250000000000001</v>
+      <c r="H370" s="9">
+        <v>1225</v>
       </c>
       <c r="I370" s="4">
         <v>242</v>
@@ -15698,8 +15712,8 @@
       <c r="L370" s="4">
         <v>11</v>
       </c>
-      <c r="M370" s="5">
-        <v>1.996</v>
+      <c r="M370" s="7">
+        <v>1996</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15722,8 +15736,8 @@
       <c r="G371" s="4">
         <v>455</v>
       </c>
-      <c r="H371" s="4">
-        <v>1.224</v>
+      <c r="H371" s="9">
+        <v>1224</v>
       </c>
       <c r="I371" s="4">
         <v>373</v>
@@ -15737,8 +15751,8 @@
       <c r="L371" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M371" s="5">
-        <v>2.0619999999999998</v>
+      <c r="M371" s="7">
+        <v>2062</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15778,8 +15792,8 @@
       <c r="L372" s="4">
         <v>6</v>
       </c>
-      <c r="M372" s="5">
-        <v>1.331</v>
+      <c r="M372" s="7">
+        <v>1331</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15817,8 +15831,8 @@
       <c r="L373" s="4">
         <v>6</v>
       </c>
-      <c r="M373" s="5">
-        <v>1.286</v>
+      <c r="M373" s="7">
+        <v>1286</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15858,8 +15872,8 @@
       <c r="L374" s="4">
         <v>7</v>
       </c>
-      <c r="M374" s="5">
-        <v>1.1970000000000001</v>
+      <c r="M374" s="7">
+        <v>1197</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15897,8 +15911,8 @@
       <c r="L375" s="4">
         <v>4</v>
       </c>
-      <c r="M375" s="5">
-        <v>1.093</v>
+      <c r="M375" s="7">
+        <v>1093</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15938,8 +15952,8 @@
       <c r="L376" s="4">
         <v>2</v>
       </c>
-      <c r="M376" s="5">
-        <v>1.18</v>
+      <c r="M376" s="7">
+        <v>1180</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15977,8 +15991,8 @@
       <c r="L377" s="4">
         <v>6</v>
       </c>
-      <c r="M377" s="5">
-        <v>1.0149999999999999</v>
+      <c r="M377" s="7">
+        <v>1015</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16018,8 +16032,8 @@
       <c r="L378" s="4">
         <v>4</v>
       </c>
-      <c r="M378" s="5">
-        <v>1.123</v>
+      <c r="M378" s="7">
+        <v>1123</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16137,8 +16151,8 @@
       <c r="L381" s="4">
         <v>5</v>
       </c>
-      <c r="M381" s="5">
-        <v>1.0089999999999999</v>
+      <c r="M381" s="7">
+        <v>1009</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16178,8 +16192,8 @@
       <c r="L382" s="4">
         <v>8</v>
       </c>
-      <c r="M382" s="5">
-        <v>1.1399999999999999</v>
+      <c r="M382" s="7">
+        <v>1140</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16217,8 +16231,8 @@
       <c r="L383" s="4">
         <v>15</v>
       </c>
-      <c r="M383" s="5">
-        <v>1.087</v>
+      <c r="M383" s="7">
+        <v>1087</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16258,8 +16272,8 @@
       <c r="L384" s="4">
         <v>9</v>
       </c>
-      <c r="M384" s="5">
-        <v>1.0760000000000001</v>
+      <c r="M384" s="7">
+        <v>1076</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16297,8 +16311,8 @@
       <c r="L385" s="4">
         <v>7</v>
       </c>
-      <c r="M385" s="5">
-        <v>1.012</v>
+      <c r="M385" s="7">
+        <v>1012</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16338,8 +16352,8 @@
       <c r="L386" s="4">
         <v>10</v>
       </c>
-      <c r="M386" s="5">
-        <v>1.026</v>
+      <c r="M386" s="7">
+        <v>1026</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16377,8 +16391,8 @@
       <c r="L387" s="4">
         <v>5</v>
       </c>
-      <c r="M387" s="5">
-        <v>1.081</v>
+      <c r="M387" s="7">
+        <v>1081</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16617,8 +16631,8 @@
       <c r="L393" s="4">
         <v>25</v>
       </c>
-      <c r="M393" s="5">
-        <v>1.3240000000000001</v>
+      <c r="M393" s="7">
+        <v>1324</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -16626,26 +16640,26 @@
         <v>12</v>
       </c>
       <c r="B394" s="6"/>
-      <c r="C394" s="5">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="D394" s="5">
-        <v>1.3759999999999999</v>
-      </c>
-      <c r="E394" s="5">
-        <v>7.09</v>
-      </c>
-      <c r="F394" s="5">
-        <v>2.9209999999999998</v>
-      </c>
-      <c r="G394" s="5">
-        <v>3.7749999999999999</v>
-      </c>
-      <c r="H394" s="5">
-        <v>6.2089999999999996</v>
-      </c>
-      <c r="I394" s="5">
-        <v>3.5369999999999999</v>
+      <c r="C394" s="7">
+        <v>1388</v>
+      </c>
+      <c r="D394" s="7">
+        <v>1376</v>
+      </c>
+      <c r="E394" s="7">
+        <v>7090</v>
+      </c>
+      <c r="F394" s="7">
+        <v>2921</v>
+      </c>
+      <c r="G394" s="7">
+        <v>3775</v>
+      </c>
+      <c r="H394" s="7">
+        <v>6209</v>
+      </c>
+      <c r="I394" s="7">
+        <v>3537</v>
       </c>
       <c r="J394" s="5">
         <v>282</v>
@@ -16656,8 +16670,8 @@
       <c r="L394" s="5">
         <v>191</v>
       </c>
-      <c r="M394" s="5">
-        <v>26.791</v>
+      <c r="M394" s="7">
+        <v>26791</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17670,20 +17684,20 @@
       <c r="D420" s="5">
         <v>776</v>
       </c>
-      <c r="E420" s="5">
-        <v>3.8969999999999998</v>
+      <c r="E420" s="7">
+        <v>3897</v>
       </c>
       <c r="F420" s="5">
         <v>818</v>
       </c>
-      <c r="G420" s="5">
-        <v>1.659</v>
-      </c>
-      <c r="H420" s="5">
-        <v>3.214</v>
-      </c>
-      <c r="I420" s="5">
-        <v>1.357</v>
+      <c r="G420" s="7">
+        <v>1659</v>
+      </c>
+      <c r="H420" s="7">
+        <v>3214</v>
+      </c>
+      <c r="I420" s="7">
+        <v>1357</v>
       </c>
       <c r="J420" s="5">
         <v>107</v>
@@ -17694,13 +17708,22 @@
       <c r="L420" s="5">
         <v>102</v>
       </c>
-      <c r="M420" s="5">
-        <v>12.285</v>
+      <c r="M420" s="7">
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A421" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A422" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A317:B317"/>
     <mergeCell ref="A343:B343"/>
     <mergeCell ref="A369:B369"/>
@@ -17717,6 +17740,7 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
